--- a/src/main/resources/excel/finished/能介/二空压站运行记录表.xlsx
+++ b/src/main/resources/excel/finished/能介/二空压站运行记录表.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="ACS_ACM_Main" sheetId="1" r:id="rId1"/>
     <sheet name="_acsReport_day_each" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1022,7 +1023,7 @@
     <t>当天运行时间累计（h)</t>
   </si>
   <si>
-    <t>本月运行时间累计（h）</t>
+    <t xml:space="preserve"> 本月运行时间累计（h）</t>
   </si>
   <si>
     <t>ES_L1R_ACS2_ACM1_Cur_10m_cur</t>
@@ -1102,8 +1103,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1196,6 +1197,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1203,15 +1219,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,16 +1272,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1243,6 +1296,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1256,24 +1324,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1284,58 +1337,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1366,7 +1367,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,31 +1517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,7 +1529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,127 +1547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1954,41 +1955,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2004,17 +1970,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2022,8 +1993,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2046,8 +2017,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2057,10 +2058,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2075,16 +2076,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2093,25 +2094,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2120,107 +2121,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -2289,7 +2290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2489,16 +2490,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2883,16 +2881,16 @@
   <sheetPr/>
   <dimension ref="A1:CU40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CK1" workbookViewId="0">
-      <selection activeCell="CO8" sqref="CO8:CO31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="92" max="93" width="39.5" customWidth="1"/>
-    <col min="94" max="97" width="33.875" hidden="1" customWidth="1"/>
-    <col min="98" max="98" width="28.75" hidden="1" customWidth="1"/>
+    <col min="94" max="97" width="33.875" customWidth="1"/>
+    <col min="98" max="98" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" spans="2:93">
@@ -4339,32 +4337,32 @@
         <f>IF(_acsReport_day_each!CK2="","",_acsReport_day_each!CK2)</f>
         <v/>
       </c>
-      <c r="CN8" s="74" t="e">
+      <c r="CN8" s="31" t="e">
         <f>AVERAGE(_acsReport_day_each!CL2:CP2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO8" s="75" t="e">
+      <c r="CO8" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ2:CU2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP8" t="str">
-        <f>IF(_acsReport_day_each!CV2&gt;0,"1","0")</f>
+      <c r="CP8">
+        <f>IF(_acsReport_day_each!CV2&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ8" t="str">
-        <f>IF(_acsReport_day_each!CW2&gt;0,"1","0")</f>
+      <c r="CQ8">
+        <f>IF(_acsReport_day_each!CW2&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR8" t="str">
-        <f>IF(_acsReport_day_each!CX2&gt;0,"1","0")</f>
+      <c r="CR8">
+        <f>IF(_acsReport_day_each!CX2&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS8" t="str">
-        <f>IF(_acsReport_day_each!CY2&gt;0,"1","0")</f>
+      <c r="CS8">
+        <f>IF(_acsReport_day_each!CY2&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT8" t="str">
-        <f>IF(_acsReport_day_each!CZ2&gt;0,"1","0")</f>
+      <c r="CT8">
+        <f>IF(_acsReport_day_each!CZ2&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4728,32 +4726,32 @@
         <f>IF(_acsReport_day_each!CK3="","",_acsReport_day_each!CK3)</f>
         <v/>
       </c>
-      <c r="CN9" s="76" t="e">
+      <c r="CN9" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL3:CP3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO9" s="75" t="e">
+      <c r="CO9" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ3:CU3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP9" t="str">
-        <f>IF(_acsReport_day_each!CV3&gt;0,"1","0")</f>
+      <c r="CP9">
+        <f>IF(_acsReport_day_each!CV3&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ9" t="str">
-        <f>IF(_acsReport_day_each!CW3&gt;0,"1","0")</f>
+      <c r="CQ9">
+        <f>IF(_acsReport_day_each!CW3&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR9" t="str">
-        <f>IF(_acsReport_day_each!CX3&gt;0,"1","0")</f>
+      <c r="CR9">
+        <f>IF(_acsReport_day_each!CX3&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS9" t="str">
-        <f>IF(_acsReport_day_each!CY3&gt;0,"1","0")</f>
+      <c r="CS9">
+        <f>IF(_acsReport_day_each!CY3&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT9" t="str">
-        <f>IF(_acsReport_day_each!CZ3&gt;0,"1","0")</f>
+      <c r="CT9">
+        <f>IF(_acsReport_day_each!CZ3&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5117,32 +5115,32 @@
         <f>IF(_acsReport_day_each!CK4="","",_acsReport_day_each!CK4)</f>
         <v/>
       </c>
-      <c r="CN10" s="76" t="e">
+      <c r="CN10" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL4:CP4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO10" s="75" t="e">
+      <c r="CO10" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ4:CU4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP10" t="str">
-        <f>IF(_acsReport_day_each!CV4&gt;0,"1","0")</f>
+      <c r="CP10">
+        <f>IF(_acsReport_day_each!CV4&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ10" t="str">
-        <f>IF(_acsReport_day_each!CW4&gt;0,"1","0")</f>
+      <c r="CQ10">
+        <f>IF(_acsReport_day_each!CW4&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR10" t="str">
-        <f>IF(_acsReport_day_each!CX4&gt;0,"1","0")</f>
+      <c r="CR10">
+        <f>IF(_acsReport_day_each!CX4&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS10" t="str">
-        <f>IF(_acsReport_day_each!CY4&gt;0,"1","0")</f>
+      <c r="CS10">
+        <f>IF(_acsReport_day_each!CY4&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT10" t="str">
-        <f>IF(_acsReport_day_each!CZ4&gt;0,"1","0")</f>
+      <c r="CT10">
+        <f>IF(_acsReport_day_each!CZ4&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5506,32 +5504,32 @@
         <f>IF(_acsReport_day_each!CK5="","",_acsReport_day_each!CK5)</f>
         <v/>
       </c>
-      <c r="CN11" s="76" t="e">
+      <c r="CN11" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL5:CP5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO11" s="75" t="e">
+      <c r="CO11" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ5:CU5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP11" t="str">
-        <f>IF(_acsReport_day_each!CV5&gt;0,"1","0")</f>
+      <c r="CP11">
+        <f>IF(_acsReport_day_each!CV5&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ11" t="str">
-        <f>IF(_acsReport_day_each!CW5&gt;0,"1","0")</f>
+      <c r="CQ11">
+        <f>IF(_acsReport_day_each!CW5&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR11" t="str">
-        <f>IF(_acsReport_day_each!CX5&gt;0,"1","0")</f>
+      <c r="CR11">
+        <f>IF(_acsReport_day_each!CX5&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS11" t="str">
-        <f>IF(_acsReport_day_each!CY5&gt;0,"1","0")</f>
+      <c r="CS11">
+        <f>IF(_acsReport_day_each!CY5&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT11" t="str">
-        <f>IF(_acsReport_day_each!CZ5&gt;0,"1","0")</f>
+      <c r="CT11">
+        <f>IF(_acsReport_day_each!CZ5&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5895,32 +5893,32 @@
         <f>IF(_acsReport_day_each!CK6="","",_acsReport_day_each!CK6)</f>
         <v/>
       </c>
-      <c r="CN12" s="76" t="e">
+      <c r="CN12" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL6:CP6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO12" s="75" t="e">
+      <c r="CO12" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ6:CU6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP12" t="str">
-        <f>IF(_acsReport_day_each!CV6&gt;0,"1","0")</f>
+      <c r="CP12">
+        <f>IF(_acsReport_day_each!CV6&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ12" t="str">
-        <f>IF(_acsReport_day_each!CW6&gt;0,"1","0")</f>
+      <c r="CQ12">
+        <f>IF(_acsReport_day_each!CW6&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR12" t="str">
-        <f>IF(_acsReport_day_each!CX6&gt;0,"1","0")</f>
+      <c r="CR12">
+        <f>IF(_acsReport_day_each!CX6&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS12" t="str">
-        <f>IF(_acsReport_day_each!CY6&gt;0,"1","0")</f>
+      <c r="CS12">
+        <f>IF(_acsReport_day_each!CY6&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT12" t="str">
-        <f>IF(_acsReport_day_each!CZ6&gt;0,"1","0")</f>
+      <c r="CT12">
+        <f>IF(_acsReport_day_each!CZ6&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6284,32 +6282,32 @@
         <f>IF(_acsReport_day_each!CK7="","",_acsReport_day_each!CK7)</f>
         <v/>
       </c>
-      <c r="CN13" s="76" t="e">
+      <c r="CN13" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL7:CP7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO13" s="75" t="e">
+      <c r="CO13" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ7:CU7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP13" t="str">
-        <f>IF(_acsReport_day_each!CV7&gt;0,"1","0")</f>
+      <c r="CP13">
+        <f>IF(_acsReport_day_each!CV7&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ13" t="str">
-        <f>IF(_acsReport_day_each!CW7&gt;0,"1","0")</f>
+      <c r="CQ13">
+        <f>IF(_acsReport_day_each!CW7&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR13" t="str">
-        <f>IF(_acsReport_day_each!CX7&gt;0,"1","0")</f>
+      <c r="CR13">
+        <f>IF(_acsReport_day_each!CX7&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS13" t="str">
-        <f>IF(_acsReport_day_each!CY7&gt;0,"1","0")</f>
+      <c r="CS13">
+        <f>IF(_acsReport_day_each!CY7&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT13" t="str">
-        <f>IF(_acsReport_day_each!CZ7&gt;0,"1","0")</f>
+      <c r="CT13">
+        <f>IF(_acsReport_day_each!CZ7&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6673,32 +6671,32 @@
         <f>IF(_acsReport_day_each!CK8="","",_acsReport_day_each!CK8)</f>
         <v/>
       </c>
-      <c r="CN14" s="76" t="e">
+      <c r="CN14" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL8:CP8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO14" s="75" t="e">
+      <c r="CO14" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ8:CU8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP14" t="str">
-        <f>IF(_acsReport_day_each!CV8&gt;0,"1","0")</f>
+      <c r="CP14">
+        <f>IF(_acsReport_day_each!CV8&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ14" t="str">
-        <f>IF(_acsReport_day_each!CW8&gt;0,"1","0")</f>
+      <c r="CQ14">
+        <f>IF(_acsReport_day_each!CW8&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR14" t="str">
-        <f>IF(_acsReport_day_each!CX8&gt;0,"1","0")</f>
+      <c r="CR14">
+        <f>IF(_acsReport_day_each!CX8&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS14" t="str">
-        <f>IF(_acsReport_day_each!CY8&gt;0,"1","0")</f>
+      <c r="CS14">
+        <f>IF(_acsReport_day_each!CY8&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT14" t="str">
-        <f>IF(_acsReport_day_each!CZ8&gt;0,"1","0")</f>
+      <c r="CT14">
+        <f>IF(_acsReport_day_each!CZ8&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7062,32 +7060,32 @@
         <f>IF(_acsReport_day_each!CK9="","",_acsReport_day_each!CK9)</f>
         <v/>
       </c>
-      <c r="CN15" s="76" t="e">
+      <c r="CN15" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL9:CP9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO15" s="75" t="e">
+      <c r="CO15" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ9:CU9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP15" t="str">
-        <f>IF(_acsReport_day_each!CV9&gt;0,"1","0")</f>
+      <c r="CP15">
+        <f>IF(_acsReport_day_each!CV9&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ15" t="str">
-        <f>IF(_acsReport_day_each!CW9&gt;0,"1","0")</f>
+      <c r="CQ15">
+        <f>IF(_acsReport_day_each!CW9&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR15" t="str">
-        <f>IF(_acsReport_day_each!CX9&gt;0,"1","0")</f>
+      <c r="CR15">
+        <f>IF(_acsReport_day_each!CX9&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS15" t="str">
-        <f>IF(_acsReport_day_each!CY9&gt;0,"1","0")</f>
+      <c r="CS15">
+        <f>IF(_acsReport_day_each!CY9&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT15" t="str">
-        <f>IF(_acsReport_day_each!CZ9&gt;0,"1","0")</f>
+      <c r="CT15">
+        <f>IF(_acsReport_day_each!CZ9&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7451,32 +7449,32 @@
         <f>IF(_acsReport_day_each!CK10="","",_acsReport_day_each!CK10)</f>
         <v/>
       </c>
-      <c r="CN16" s="76" t="e">
+      <c r="CN16" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL10:CP10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO16" s="75" t="e">
+      <c r="CO16" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ10:CU10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP16" t="str">
-        <f>IF(_acsReport_day_each!CV10&gt;0,"1","0")</f>
+      <c r="CP16">
+        <f>IF(_acsReport_day_each!CV10&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ16" t="str">
-        <f>IF(_acsReport_day_each!CW10&gt;0,"1","0")</f>
+      <c r="CQ16">
+        <f>IF(_acsReport_day_each!CW10&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR16" t="str">
-        <f>IF(_acsReport_day_each!CX10&gt;0,"1","0")</f>
+      <c r="CR16">
+        <f>IF(_acsReport_day_each!CX10&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS16" t="str">
-        <f>IF(_acsReport_day_each!CY10&gt;0,"1","0")</f>
+      <c r="CS16">
+        <f>IF(_acsReport_day_each!CY10&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT16" t="str">
-        <f>IF(_acsReport_day_each!CZ10&gt;0,"1","0")</f>
+      <c r="CT16">
+        <f>IF(_acsReport_day_each!CZ10&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7840,32 +7838,32 @@
         <f>IF(_acsReport_day_each!CK11="","",_acsReport_day_each!CK11)</f>
         <v/>
       </c>
-      <c r="CN17" s="76" t="e">
+      <c r="CN17" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL11:CP11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO17" s="75" t="e">
+      <c r="CO17" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ11:CU11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP17" t="str">
-        <f>IF(_acsReport_day_each!CV11&gt;0,"1","0")</f>
+      <c r="CP17">
+        <f>IF(_acsReport_day_each!CV11&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ17" t="str">
-        <f>IF(_acsReport_day_each!CW11&gt;0,"1","0")</f>
+      <c r="CQ17">
+        <f>IF(_acsReport_day_each!CW11&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR17" t="str">
-        <f>IF(_acsReport_day_each!CX11&gt;0,"1","0")</f>
+      <c r="CR17">
+        <f>IF(_acsReport_day_each!CX11&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS17" t="str">
-        <f>IF(_acsReport_day_each!CY11&gt;0,"1","0")</f>
+      <c r="CS17">
+        <f>IF(_acsReport_day_each!CY11&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT17" t="str">
-        <f>IF(_acsReport_day_each!CZ11&gt;0,"1","0")</f>
+      <c r="CT17">
+        <f>IF(_acsReport_day_each!CZ11&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8229,32 +8227,32 @@
         <f>IF(_acsReport_day_each!CK12="","",_acsReport_day_each!CK12)</f>
         <v/>
       </c>
-      <c r="CN18" s="76" t="e">
+      <c r="CN18" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL12:CP12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO18" s="75" t="e">
+      <c r="CO18" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ12:CU12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP18" t="str">
-        <f>IF(_acsReport_day_each!CV12&gt;0,"1","0")</f>
+      <c r="CP18">
+        <f>IF(_acsReport_day_each!CV12&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ18" t="str">
-        <f>IF(_acsReport_day_each!CW12&gt;0,"1","0")</f>
+      <c r="CQ18">
+        <f>IF(_acsReport_day_each!CW12&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR18" t="str">
-        <f>IF(_acsReport_day_each!CX12&gt;0,"1","0")</f>
+      <c r="CR18">
+        <f>IF(_acsReport_day_each!CX12&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS18" t="str">
-        <f>IF(_acsReport_day_each!CY12&gt;0,"1","0")</f>
+      <c r="CS18">
+        <f>IF(_acsReport_day_each!CY12&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT18" t="str">
-        <f>IF(_acsReport_day_each!CZ12&gt;0,"1","0")</f>
+      <c r="CT18">
+        <f>IF(_acsReport_day_each!CZ12&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8618,32 +8616,32 @@
         <f>IF(_acsReport_day_each!CK13="","",_acsReport_day_each!CK13)</f>
         <v/>
       </c>
-      <c r="CN19" s="76" t="e">
+      <c r="CN19" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL13:CP13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO19" s="75" t="e">
+      <c r="CO19" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ13:CU13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP19" t="str">
-        <f>IF(_acsReport_day_each!CV13&gt;0,"1","0")</f>
+      <c r="CP19">
+        <f>IF(_acsReport_day_each!CV13&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ19" t="str">
-        <f>IF(_acsReport_day_each!CW13&gt;0,"1","0")</f>
+      <c r="CQ19">
+        <f>IF(_acsReport_day_each!CW13&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR19" t="str">
-        <f>IF(_acsReport_day_each!CX13&gt;0,"1","0")</f>
+      <c r="CR19">
+        <f>IF(_acsReport_day_each!CX13&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS19" t="str">
-        <f>IF(_acsReport_day_each!CY13&gt;0,"1","0")</f>
+      <c r="CS19">
+        <f>IF(_acsReport_day_each!CY13&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT19" t="str">
-        <f>IF(_acsReport_day_each!CZ13&gt;0,"1","0")</f>
+      <c r="CT19">
+        <f>IF(_acsReport_day_each!CZ13&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9007,32 +9005,32 @@
         <f>IF(_acsReport_day_each!CK14="","",_acsReport_day_each!CK14)</f>
         <v/>
       </c>
-      <c r="CN20" s="76" t="e">
+      <c r="CN20" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL14:CP14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO20" s="75" t="e">
+      <c r="CO20" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ14:CU14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP20" t="str">
-        <f>IF(_acsReport_day_each!CV14&gt;0,"1","0")</f>
+      <c r="CP20">
+        <f>IF(_acsReport_day_each!CV14&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ20" t="str">
-        <f>IF(_acsReport_day_each!CW14&gt;0,"1","0")</f>
+      <c r="CQ20">
+        <f>IF(_acsReport_day_each!CW14&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR20" t="str">
-        <f>IF(_acsReport_day_each!CX14&gt;0,"1","0")</f>
+      <c r="CR20">
+        <f>IF(_acsReport_day_each!CX14&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS20" t="str">
-        <f>IF(_acsReport_day_each!CY14&gt;0,"1","0")</f>
+      <c r="CS20">
+        <f>IF(_acsReport_day_each!CY14&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT20" t="str">
-        <f>IF(_acsReport_day_each!CZ14&gt;0,"1","0")</f>
+      <c r="CT20">
+        <f>IF(_acsReport_day_each!CZ14&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9396,32 +9394,32 @@
         <f>IF(_acsReport_day_each!CK15="","",_acsReport_day_each!CK15)</f>
         <v/>
       </c>
-      <c r="CN21" s="76" t="e">
+      <c r="CN21" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL15:CP15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO21" s="75" t="e">
+      <c r="CO21" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ15:CU15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP21" t="str">
-        <f>IF(_acsReport_day_each!CV15&gt;0,"1","0")</f>
+      <c r="CP21">
+        <f>IF(_acsReport_day_each!CV15&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ21" t="str">
-        <f>IF(_acsReport_day_each!CW15&gt;0,"1","0")</f>
+      <c r="CQ21">
+        <f>IF(_acsReport_day_each!CW15&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR21" t="str">
-        <f>IF(_acsReport_day_each!CX15&gt;0,"1","0")</f>
+      <c r="CR21">
+        <f>IF(_acsReport_day_each!CX15&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS21" t="str">
-        <f>IF(_acsReport_day_each!CY15&gt;0,"1","0")</f>
+      <c r="CS21">
+        <f>IF(_acsReport_day_each!CY15&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT21" t="str">
-        <f>IF(_acsReport_day_each!CZ15&gt;0,"1","0")</f>
+      <c r="CT21">
+        <f>IF(_acsReport_day_each!CZ15&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9785,32 +9783,32 @@
         <f>IF(_acsReport_day_each!CK16="","",_acsReport_day_each!CK16)</f>
         <v/>
       </c>
-      <c r="CN22" s="76" t="e">
+      <c r="CN22" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL16:CP16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO22" s="75" t="e">
+      <c r="CO22" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ16:CU16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP22" t="str">
-        <f>IF(_acsReport_day_each!CV16&gt;0,"1","0")</f>
+      <c r="CP22">
+        <f>IF(_acsReport_day_each!CV16&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ22" t="str">
-        <f>IF(_acsReport_day_each!CW16&gt;0,"1","0")</f>
+      <c r="CQ22">
+        <f>IF(_acsReport_day_each!CW16&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR22" t="str">
-        <f>IF(_acsReport_day_each!CX16&gt;0,"1","0")</f>
+      <c r="CR22">
+        <f>IF(_acsReport_day_each!CX16&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS22" t="str">
-        <f>IF(_acsReport_day_each!CY16&gt;0,"1","0")</f>
+      <c r="CS22">
+        <f>IF(_acsReport_day_each!CY16&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT22" t="str">
-        <f>IF(_acsReport_day_each!CZ16&gt;0,"1","0")</f>
+      <c r="CT22">
+        <f>IF(_acsReport_day_each!CZ16&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10174,32 +10172,32 @@
         <f>IF(_acsReport_day_each!CK17="","",_acsReport_day_each!CK17)</f>
         <v/>
       </c>
-      <c r="CN23" s="76" t="e">
+      <c r="CN23" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL17:CP17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO23" s="75" t="e">
+      <c r="CO23" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ17:CU17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP23" t="str">
-        <f>IF(_acsReport_day_each!CV17&gt;0,"1","0")</f>
+      <c r="CP23">
+        <f>IF(_acsReport_day_each!CV17&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ23" t="str">
-        <f>IF(_acsReport_day_each!CW17&gt;0,"1","0")</f>
+      <c r="CQ23">
+        <f>IF(_acsReport_day_each!CW17&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR23" t="str">
-        <f>IF(_acsReport_day_each!CX17&gt;0,"1","0")</f>
+      <c r="CR23">
+        <f>IF(_acsReport_day_each!CX17&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS23" t="str">
-        <f>IF(_acsReport_day_each!CY17&gt;0,"1","0")</f>
+      <c r="CS23">
+        <f>IF(_acsReport_day_each!CY17&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT23" t="str">
-        <f>IF(_acsReport_day_each!CZ17&gt;0,"1","0")</f>
+      <c r="CT23">
+        <f>IF(_acsReport_day_each!CZ17&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10563,32 +10561,32 @@
         <f>IF(_acsReport_day_each!CK18="","",_acsReport_day_each!CK18)</f>
         <v/>
       </c>
-      <c r="CN24" s="76" t="e">
+      <c r="CN24" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL18:CP18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO24" s="75" t="e">
+      <c r="CO24" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ18:CU18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP24" t="str">
-        <f>IF(_acsReport_day_each!CV18&gt;0,"1","0")</f>
+      <c r="CP24">
+        <f>IF(_acsReport_day_each!CV18&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ24" t="str">
-        <f>IF(_acsReport_day_each!CW18&gt;0,"1","0")</f>
+      <c r="CQ24">
+        <f>IF(_acsReport_day_each!CW18&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR24" t="str">
-        <f>IF(_acsReport_day_each!CX18&gt;0,"1","0")</f>
+      <c r="CR24">
+        <f>IF(_acsReport_day_each!CX18&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS24" t="str">
-        <f>IF(_acsReport_day_each!CY18&gt;0,"1","0")</f>
+      <c r="CS24">
+        <f>IF(_acsReport_day_each!CY18&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT24" t="str">
-        <f>IF(_acsReport_day_each!CZ18&gt;0,"1","0")</f>
+      <c r="CT24">
+        <f>IF(_acsReport_day_each!CZ18&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10952,32 +10950,32 @@
         <f>IF(_acsReport_day_each!CK19="","",_acsReport_day_each!CK19)</f>
         <v/>
       </c>
-      <c r="CN25" s="76" t="e">
+      <c r="CN25" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL19:CP19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO25" s="75" t="e">
+      <c r="CO25" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ19:CU19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP25" t="str">
-        <f>IF(_acsReport_day_each!CV19&gt;0,"1","0")</f>
+      <c r="CP25">
+        <f>IF(_acsReport_day_each!CV19&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ25" t="str">
-        <f>IF(_acsReport_day_each!CW19&gt;0,"1","0")</f>
+      <c r="CQ25">
+        <f>IF(_acsReport_day_each!CW19&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR25" t="str">
-        <f>IF(_acsReport_day_each!CX19&gt;0,"1","0")</f>
+      <c r="CR25">
+        <f>IF(_acsReport_day_each!CX19&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS25" t="str">
-        <f>IF(_acsReport_day_each!CY19&gt;0,"1","0")</f>
+      <c r="CS25">
+        <f>IF(_acsReport_day_each!CY19&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT25" t="str">
-        <f>IF(_acsReport_day_each!CZ19&gt;0,"1","0")</f>
+      <c r="CT25">
+        <f>IF(_acsReport_day_each!CZ19&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11341,32 +11339,32 @@
         <f>IF(_acsReport_day_each!CK20="","",_acsReport_day_each!CK20)</f>
         <v/>
       </c>
-      <c r="CN26" s="76" t="e">
+      <c r="CN26" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL20:CP20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO26" s="75" t="e">
+      <c r="CO26" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ20:CU20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP26" t="str">
-        <f>IF(_acsReport_day_each!CV20&gt;0,"1","0")</f>
+      <c r="CP26">
+        <f>IF(_acsReport_day_each!CV20&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ26" t="str">
-        <f>IF(_acsReport_day_each!CW20&gt;0,"1","0")</f>
+      <c r="CQ26">
+        <f>IF(_acsReport_day_each!CW20&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR26" t="str">
-        <f>IF(_acsReport_day_each!CX20&gt;0,"1","0")</f>
+      <c r="CR26">
+        <f>IF(_acsReport_day_each!CX20&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS26" t="str">
-        <f>IF(_acsReport_day_each!CY20&gt;0,"1","0")</f>
+      <c r="CS26">
+        <f>IF(_acsReport_day_each!CY20&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT26" t="str">
-        <f>IF(_acsReport_day_each!CZ20&gt;0,"1","0")</f>
+      <c r="CT26">
+        <f>IF(_acsReport_day_each!CZ20&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11730,32 +11728,32 @@
         <f>IF(_acsReport_day_each!CK21="","",_acsReport_day_each!CK21)</f>
         <v/>
       </c>
-      <c r="CN27" s="76" t="e">
+      <c r="CN27" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL21:CP21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO27" s="75" t="e">
+      <c r="CO27" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ21:CU21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP27" t="str">
-        <f>IF(_acsReport_day_each!CV21&gt;0,"1","0")</f>
+      <c r="CP27">
+        <f>IF(_acsReport_day_each!CV21&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ27" t="str">
-        <f>IF(_acsReport_day_each!CW21&gt;0,"1","0")</f>
+      <c r="CQ27">
+        <f>IF(_acsReport_day_each!CW21&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR27" t="str">
-        <f>IF(_acsReport_day_each!CX21&gt;0,"1","0")</f>
+      <c r="CR27">
+        <f>IF(_acsReport_day_each!CX21&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS27" t="str">
-        <f>IF(_acsReport_day_each!CY21&gt;0,"1","0")</f>
+      <c r="CS27">
+        <f>IF(_acsReport_day_each!CY21&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT27" t="str">
-        <f>IF(_acsReport_day_each!CZ21&gt;0,"1","0")</f>
+      <c r="CT27">
+        <f>IF(_acsReport_day_each!CZ21&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12119,32 +12117,32 @@
         <f>IF(_acsReport_day_each!CK22="","",_acsReport_day_each!CK22)</f>
         <v/>
       </c>
-      <c r="CN28" s="76" t="e">
+      <c r="CN28" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL22:CP22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO28" s="75" t="e">
+      <c r="CO28" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ22:CU22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP28" t="str">
-        <f>IF(_acsReport_day_each!CV22&gt;0,"1","0")</f>
+      <c r="CP28">
+        <f>IF(_acsReport_day_each!CV22&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ28" t="str">
-        <f>IF(_acsReport_day_each!CW22&gt;0,"1","0")</f>
+      <c r="CQ28">
+        <f>IF(_acsReport_day_each!CW22&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR28" t="str">
-        <f>IF(_acsReport_day_each!CX22&gt;0,"1","0")</f>
+      <c r="CR28">
+        <f>IF(_acsReport_day_each!CX22&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS28" t="str">
-        <f>IF(_acsReport_day_each!CY22&gt;0,"1","0")</f>
+      <c r="CS28">
+        <f>IF(_acsReport_day_each!CY22&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT28" t="str">
-        <f>IF(_acsReport_day_each!CZ22&gt;0,"1","0")</f>
+      <c r="CT28">
+        <f>IF(_acsReport_day_each!CZ22&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12508,32 +12506,32 @@
         <f>IF(_acsReport_day_each!CK23="","",_acsReport_day_each!CK23)</f>
         <v/>
       </c>
-      <c r="CN29" s="76" t="e">
+      <c r="CN29" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL23:CP23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO29" s="75" t="e">
+      <c r="CO29" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ23:CU23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP29" t="str">
-        <f>IF(_acsReport_day_each!CV23&gt;0,"1","0")</f>
+      <c r="CP29">
+        <f>IF(_acsReport_day_each!CV23&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ29" t="str">
-        <f>IF(_acsReport_day_each!CW23&gt;0,"1","0")</f>
+      <c r="CQ29">
+        <f>IF(_acsReport_day_each!CW23&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR29" t="str">
-        <f>IF(_acsReport_day_each!CX23&gt;0,"1","0")</f>
+      <c r="CR29">
+        <f>IF(_acsReport_day_each!CX23&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS29" t="str">
-        <f>IF(_acsReport_day_each!CY23&gt;0,"1","0")</f>
+      <c r="CS29">
+        <f>IF(_acsReport_day_each!CY23&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT29" t="str">
-        <f>IF(_acsReport_day_each!CZ23&gt;0,"1","0")</f>
+      <c r="CT29">
+        <f>IF(_acsReport_day_each!CZ23&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12897,32 +12895,32 @@
         <f>IF(_acsReport_day_each!CK24="","",_acsReport_day_each!CK24)</f>
         <v/>
       </c>
-      <c r="CN30" s="76" t="e">
+      <c r="CN30" s="75" t="e">
         <f>AVERAGE(_acsReport_day_each!CL24:CP24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO30" s="75" t="e">
+      <c r="CO30" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ24:CU24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP30" t="str">
-        <f>IF(_acsReport_day_each!CV24&gt;0,"1","0")</f>
+      <c r="CP30">
+        <f>IF(_acsReport_day_each!CV24&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ30" t="str">
-        <f>IF(_acsReport_day_each!CW24&gt;0,"1","0")</f>
+      <c r="CQ30">
+        <f>IF(_acsReport_day_each!CW24&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR30" t="str">
-        <f>IF(_acsReport_day_each!CX24&gt;0,"1","0")</f>
+      <c r="CR30">
+        <f>IF(_acsReport_day_each!CX24&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS30" t="str">
-        <f>IF(_acsReport_day_each!CY24&gt;0,"1","0")</f>
+      <c r="CS30">
+        <f>IF(_acsReport_day_each!CY24&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT30" t="str">
-        <f>IF(_acsReport_day_each!CZ24&gt;0,"1","0")</f>
+      <c r="CT30">
+        <f>IF(_acsReport_day_each!CZ24&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -13286,32 +13284,32 @@
         <f>IF(_acsReport_day_each!CK25="","",_acsReport_day_each!CK25)</f>
         <v/>
       </c>
-      <c r="CN31" s="77" t="e">
+      <c r="CN31" s="76" t="e">
         <f>AVERAGE(_acsReport_day_each!CL25:CP25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CO31" s="75" t="e">
+      <c r="CO31" s="74" t="e">
         <f>AVERAGE(_acsReport_day_each!CQ25:CU25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CP31" t="str">
-        <f>IF(_acsReport_day_each!CV25&gt;0,"1","0")</f>
+      <c r="CP31">
+        <f>IF(_acsReport_day_each!CV25&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CQ31" t="str">
-        <f>IF(_acsReport_day_each!CW25&gt;0,"1","0")</f>
+      <c r="CQ31">
+        <f>IF(_acsReport_day_each!CW25&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CR31" t="str">
-        <f>IF(_acsReport_day_each!CX25&gt;0,"1","0")</f>
+      <c r="CR31">
+        <f>IF(_acsReport_day_each!CX25&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CS31" t="str">
-        <f>IF(_acsReport_day_each!CY25&gt;0,"1","0")</f>
+      <c r="CS31">
+        <f>IF(_acsReport_day_each!CY25&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT31" t="str">
-        <f>IF(_acsReport_day_each!CZ25&gt;0,"1","0")</f>
+      <c r="CT31">
+        <f>IF(_acsReport_day_each!CZ25&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -14234,8 +14232,8 @@
   <sheetPr/>
   <dimension ref="A1:DG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="CX1" workbookViewId="0">
+      <selection activeCell="CY7" sqref="CY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -14605,4 +14603,20 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>